--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1378,7 +1378,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1406,10 +1406,6 @@
   </si>
   <si>
     <t>Base entry of the dosage instruction</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction:additionalEntry</t>
@@ -1890,17 +1886,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1909,26 +1905,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="130.8515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="112.1796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -9138,7 +9134,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>445</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9158,13 +9154,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>433</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -9186,10 +9182,10 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>436</v>
@@ -9277,10 +9273,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9306,10 +9302,10 @@
         <v>338</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9360,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9372,19 +9368,19 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9392,10 +9388,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9507,10 +9503,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9624,10 +9620,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9743,10 +9739,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9769,13 +9765,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9826,7 +9822,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>89</v>
@@ -9844,7 +9840,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9858,10 +9854,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9887,10 +9883,10 @@
         <v>197</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9921,7 +9917,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -9939,7 +9935,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -9963,18 +9959,18 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>469</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10000,10 +9996,10 @@
         <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10033,11 +10029,11 @@
         <v>261</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10054,7 +10050,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10072,13 +10068,13 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10086,10 +10082,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10112,13 +10108,13 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10169,7 +10165,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10187,13 +10183,13 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10201,14 +10197,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10227,16 +10223,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10286,7 +10282,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10304,7 +10300,7 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10318,10 +10314,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10344,16 +10340,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10403,7 +10399,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10421,7 +10417,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,8 +272,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}ch-dosage-meddis:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}</t>
   </si>
   <si>
@@ -369,7 +369,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -539,461 +539,304 @@
     <t>MedicationDispense.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense Identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>MedicationDispense.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Event that dispense is part of</t>
+  </si>
+  <si>
+    <t>The procedure that trigger the dispense.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationDispense.status</t>
+  </si>
+  <si>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the set of dispense events.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept specifying the state of the dispense event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
+  </si>
+  <si>
+    <t>MedicationDispense.statusReason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(DetectedIssue|4.0.1)</t>
+  </si>
+  <si>
+    <t>Why a dispense was not performed</t>
+  </si>
+  <si>
+    <t>Indicates the reason why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code describing why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of medication dispense</t>
+  </si>
+  <si>
+    <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
+  </si>
+  <si>
+    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying which substance or product can be dispensed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRD].role</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
+  </si>
+  <si>
+    <t>RXD-2-Dispense/Give Code</t>
+  </si>
+  <si>
+    <t>MedicationDispense.medication[x]:medicationReference</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Reference to the contained medication</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
+  </si>
+  <si>
+    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MedicationDispense.subject.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>MedicationDispense Identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationDispense.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationDispense.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Procedure)
-</t>
-  </si>
-  <si>
-    <t>Event that dispense is part of</t>
-  </si>
-  <si>
-    <t>The procedure that trigger the dispense.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationDispense.status</t>
-  </si>
-  <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | declined | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the set of dispense events.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.SupplyEvent.statusCode</t>
-  </si>
-  <si>
-    <t>MedicationDispense.statusReason[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(DetectedIssue)</t>
-  </si>
-  <si>
-    <t>Why a dispense was not performed</t>
-  </si>
-  <si>
-    <t>Indicates the reason why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code describing why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t>Type of medication dispense</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
-  </si>
-  <si>
-    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
-  </si>
-  <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRD].role</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest.component1.AdministrationRequest.consumable</t>
-  </si>
-  <si>
-    <t>RXD-2-Dispense/Give Code</t>
-  </si>
-  <si>
-    <t>MedicationDispense.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Reference to the contained medication</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>A link to a resource representing the person or the group to whom the medication will be given.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration-&gt;subject-&gt;Patient.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationDispense.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1032,7 +875,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1051,7 +894,7 @@
     <t>MedicationDispense.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1124,7 +967,7 @@
     <t>A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function|4.0.1</t>
   </si>
   <si>
     <t>participation[typeCode=PRF].functionCode</t>
@@ -1170,7 +1013,7 @@
     <t>MedicationDispense.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1186,7 +1029,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1235,7 +1078,7 @@
     <t>MedicationDispense.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1330,7 +1173,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1)
 </t>
   </si>
   <si>
@@ -1507,7 +1350,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1530,7 +1373,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1549,7 +1392,7 @@
     <t>MedicationDispense.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1877,7 +1720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1905,7 +1748,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -3701,7 +3544,7 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3770,22 +3613,22 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>180</v>
@@ -3809,26 +3652,26 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>182</v>
@@ -3837,7 +3680,7 @@
         <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3845,7 +3688,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -3863,55 +3706,55 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3919,10 +3762,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3939,26 +3782,22 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3982,31 +3821,31 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4021,10 +3860,10 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4033,15 +3872,15 @@
         <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4061,23 +3900,21 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4101,31 +3938,31 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4143,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4152,15 +3989,15 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4183,32 +4020,30 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>80</v>
@@ -4220,34 +4055,32 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4259,35 +4092,37 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>89</v>
@@ -4302,16 +4137,16 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4325,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>80</v>
@@ -4361,10 +4196,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4376,27 +4211,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4419,15 +4254,17 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4476,7 +4313,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4491,27 +4328,27 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4531,20 +4368,18 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4593,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4605,13 +4440,13 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4620,19 +4455,19 @@
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4651,15 +4486,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4696,19 +4533,19 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4720,13 +4557,13 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4740,10 +4577,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4760,22 +4597,22 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4783,7 +4620,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>80</v>
@@ -4801,55 +4638,55 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4857,10 +4694,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4880,18 +4717,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4916,13 +4755,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4940,7 +4779,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4955,10 +4794,10 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4972,10 +4811,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4995,19 +4834,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5033,13 +4872,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5075,7 +4914,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5089,10 +4928,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5100,7 +4939,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5115,16 +4954,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5150,32 +4989,34 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5187,31 +5028,29 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5229,20 +5068,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5294,7 +5131,7 @@
         <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5306,27 +5143,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5337,7 +5174,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5346,20 +5183,18 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5408,13 +5243,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5423,27 +5258,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5451,7 +5286,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5466,13 +5301,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5523,25 +5358,25 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5555,21 +5390,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5581,17 +5416,15 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5628,37 +5461,37 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5672,21 +5505,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5695,19 +5528,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5757,25 +5590,25 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5789,44 +5622,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5850,13 +5685,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5874,19 +5709,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5906,10 +5741,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5929,21 +5764,21 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5967,13 +5802,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5991,7 +5826,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6009,7 +5844,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6023,10 +5858,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6034,7 +5869,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6046,20 +5881,18 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6108,10 +5941,10 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6123,10 +5956,10 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6140,10 +5973,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6166,13 +5999,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>238</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6223,7 +6056,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6235,13 +6068,13 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6255,14 +6088,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6281,15 +6114,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6326,19 +6161,19 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6350,16 +6185,16 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6370,10 +6205,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6393,18 +6228,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6453,25 +6290,25 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6485,10 +6322,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6508,18 +6345,20 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6544,13 +6383,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6568,7 +6407,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6580,13 +6419,13 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6600,21 +6439,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6623,19 +6462,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6685,25 +6524,25 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6717,46 +6556,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6804,19 +6641,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -6836,10 +6673,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6862,18 +6699,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6897,13 +6732,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6921,7 +6756,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -6939,7 +6774,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -6953,10 +6788,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6964,10 +6799,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -6979,15 +6814,17 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7036,13 +6873,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7051,27 +6888,27 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7094,13 +6931,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>178</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7127,13 +6964,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7151,7 +6988,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7163,41 +7000,41 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7209,17 +7046,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7256,54 +7091,54 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>185</v>
+        <v>338</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7311,7 +7146,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7323,20 +7158,18 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7385,7 +7218,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7394,7 +7227,7 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7403,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7412,15 +7245,15 @@
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7443,17 +7276,15 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7478,13 +7309,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7502,7 +7333,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7520,24 +7351,24 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7545,7 +7376,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7557,20 +7388,18 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7619,7 +7448,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7634,27 +7463,27 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7674,20 +7503,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7736,7 +7563,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7754,24 +7581,24 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7782,7 +7609,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7794,13 +7621,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7851,13 +7678,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -7869,13 +7696,13 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -7917,9 +7744,7 @@
       <c r="M52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N52" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7983,27 +7808,27 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8011,10 +7836,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8026,15 +7851,17 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>197</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8059,37 +7886,35 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8101,26 +7926,28 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>388</v>
+        <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="B54" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8147,9 +7974,11 @@
         <v>392</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8198,13 +8027,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8216,26 +8045,28 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8244,7 +8075,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8256,15 +8087,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8313,13 +8146,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8331,7 +8164,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8340,15 +8173,15 @@
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8368,16 +8201,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>286</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8428,42 +8261,42 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AO56" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8471,7 +8304,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8486,13 +8319,13 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>410</v>
+        <v>238</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>411</v>
+        <v>239</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8543,7 +8376,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8555,41 +8388,41 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>241</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8601,15 +8434,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>415</v>
+        <v>243</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8658,46 +8493,46 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>246</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8710,22 +8545,26 @@
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>295</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8773,7 +8612,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>297</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8785,19 +8624,19 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>424</v>
+        <v>132</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8805,10 +8644,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8816,10 +8655,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8831,13 +8670,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8888,13 +8727,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8903,10 +8742,10 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8915,15 +8754,15 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8931,10 +8770,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -8946,17 +8785,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8981,35 +8818,35 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9021,37 +8858,35 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9063,17 +8898,15 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>443</v>
+        <v>203</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9098,13 +8931,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9122,7 +8955,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9140,13 +8973,13 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9154,14 +8987,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9182,17 +9013,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9241,7 +9070,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9259,13 +9088,13 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9273,21 +9102,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
@@ -9299,15 +9128,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9356,31 +9187,31 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>452</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9388,10 +9219,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9402,7 +9233,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9414,15 +9245,17 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>177</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9471,25 +9304,25 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>437</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9498,934 +9331,6 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y69" s="2"/>
-      <c r="Z69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
     </row>
